--- a/src/Tests/Templates/Persons.xlsx
+++ b/src/Tests/Templates/Persons.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\bin\Debug\net6.0\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <x:si>
     <x:t>ИНН</x:t>
   </x:si>
@@ -221,19 +221,16 @@
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>08.02.2023</x:t>
+    <x:t>17.05.2023</x:t>
   </x:si>
   <x:si>
     <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>12.05.2023</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -761,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:V50"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <x:selection activeCell="S3" sqref="S3"/>
+    <x:sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <x:selection activeCell="D10" sqref="D10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,7 +788,7 @@
     <x:col min="21" max="16384" width="9.140625" style="2"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:20" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="1" spans="1:22" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A1" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -852,8 +849,10 @@
       <x:c r="T1" s="17" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="U1"/>
+      <x:c r="V1"/>
+    </x:row>
+    <x:row r="2" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -883,13 +882,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="S2" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T2" t="s">
         <x:v>29</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="U2"/>
+      <x:c r="V2"/>
+    </x:row>
+    <x:row r="3" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A3" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -917,13 +918,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="S3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T3" t="s">
         <x:v>29</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="U3"/>
+      <x:c r="V3"/>
+    </x:row>
+    <x:row r="4" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A4" s="5"/>
       <x:c r="B4" s="5"/>
       <x:c r="C4" s="5"/>
@@ -942,7 +945,7 @@
       <x:c r="P4" s="10"/>
       <x:c r="Q4" s="16"/>
     </x:row>
-    <x:row r="5" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="5" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A5" s="5"/>
       <x:c r="B5" s="5"/>
       <x:c r="C5" s="5"/>
@@ -961,7 +964,7 @@
       <x:c r="P5" s="10"/>
       <x:c r="Q5" s="16"/>
     </x:row>
-    <x:row r="6" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="6" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A6" s="5"/>
       <x:c r="B6" s="5"/>
       <x:c r="C6" s="5"/>
@@ -980,7 +983,7 @@
       <x:c r="P6" s="10"/>
       <x:c r="Q6" s="16"/>
     </x:row>
-    <x:row r="7" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="7" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A7" s="5"/>
       <x:c r="B7" s="5"/>
       <x:c r="C7" s="5"/>
@@ -999,7 +1002,7 @@
       <x:c r="P7" s="10"/>
       <x:c r="Q7" s="16"/>
     </x:row>
-    <x:row r="8" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="8" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="5"/>
       <x:c r="C8" s="5"/>
@@ -1018,7 +1021,7 @@
       <x:c r="P8" s="10"/>
       <x:c r="Q8" s="16"/>
     </x:row>
-    <x:row r="9" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="9" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A9" s="5"/>
       <x:c r="B9" s="5"/>
       <x:c r="C9" s="5"/>
@@ -1037,7 +1040,7 @@
       <x:c r="P9" s="10"/>
       <x:c r="Q9" s="16"/>
     </x:row>
-    <x:row r="10" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="10" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A10" s="5"/>
       <x:c r="B10" s="5"/>
       <x:c r="C10" s="5"/>
@@ -1056,7 +1059,7 @@
       <x:c r="P10" s="10"/>
       <x:c r="Q10" s="16"/>
     </x:row>
-    <x:row r="11" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="11" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A11" s="5"/>
       <x:c r="B11" s="5"/>
       <x:c r="C11" s="5"/>
@@ -1075,7 +1078,7 @@
       <x:c r="P11" s="10"/>
       <x:c r="Q11" s="16"/>
     </x:row>
-    <x:row r="12" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="12" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A12" s="5"/>
       <x:c r="B12" s="5"/>
       <x:c r="C12" s="5"/>
@@ -1094,7 +1097,7 @@
       <x:c r="P12" s="10"/>
       <x:c r="Q12" s="16"/>
     </x:row>
-    <x:row r="13" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="13" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A13" s="5"/>
       <x:c r="B13" s="5"/>
       <x:c r="C13" s="5"/>
@@ -1113,7 +1116,7 @@
       <x:c r="P13" s="10"/>
       <x:c r="Q13" s="16"/>
     </x:row>
-    <x:row r="14" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="14" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="5"/>
       <x:c r="C14" s="5"/>
@@ -1132,7 +1135,7 @@
       <x:c r="P14" s="10"/>
       <x:c r="Q14" s="16"/>
     </x:row>
-    <x:row r="15" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="15" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A15" s="5"/>
       <x:c r="B15" s="5"/>
       <x:c r="C15" s="5"/>
@@ -1151,7 +1154,7 @@
       <x:c r="P15" s="10"/>
       <x:c r="Q15" s="16"/>
     </x:row>
-    <x:row r="16" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="16" spans="1:22" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A16" s="5"/>
       <x:c r="B16" s="5"/>
       <x:c r="C16" s="5"/>
